--- a/lab3/CheckList.xlsx
+++ b/lab3/CheckList.xlsx
@@ -11,16 +11,371 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox 38</t>
+  </si>
+  <si>
+    <t>Internet Explorer 11</t>
+  </si>
+  <si>
+    <t>Google Chrome 44</t>
+  </si>
+  <si>
+    <t>Приоритеты</t>
+  </si>
+  <si>
+    <t>Загрузка файла с резюме</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>fb2</t>
+  </si>
+  <si>
+    <t>rtf</t>
+  </si>
+  <si>
+    <t>odt</t>
+  </si>
+  <si>
+    <t>DjVu</t>
+  </si>
+  <si>
+    <t>Допустимый тип:</t>
+  </si>
+  <si>
+    <t>Недопустиый тип:</t>
+  </si>
+  <si>
+    <t>test.txt</t>
+  </si>
+  <si>
+    <t>test.pdf</t>
+  </si>
+  <si>
+    <t>test.doc</t>
+  </si>
+  <si>
+    <t>test.docx</t>
+  </si>
+  <si>
+    <t>test.fb2</t>
+  </si>
+  <si>
+    <t>test.rtf</t>
+  </si>
+  <si>
+    <t>test.odt</t>
+  </si>
+  <si>
+    <t>test.DjVu</t>
+  </si>
+  <si>
+    <t>sln</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>bmp</t>
+  </si>
+  <si>
+    <t>gif</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>avi</t>
+  </si>
+  <si>
+    <t>test.sln</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>test.ppt</t>
+  </si>
+  <si>
+    <t>test.xls</t>
+  </si>
+  <si>
+    <t>test.xml</t>
+  </si>
+  <si>
+    <t>test.json</t>
+  </si>
+  <si>
+    <t>test.exe</t>
+  </si>
+  <si>
+    <t>test.sh</t>
+  </si>
+  <si>
+    <t>test.jpg</t>
+  </si>
+  <si>
+    <t>test.bmp</t>
+  </si>
+  <si>
+    <t>test.gif</t>
+  </si>
+  <si>
+    <t>test.mp3</t>
+  </si>
+  <si>
+    <t>test.wav</t>
+  </si>
+  <si>
+    <t>test.mp4</t>
+  </si>
+  <si>
+    <t>test.avi</t>
+  </si>
+  <si>
+    <t>test.cpp</t>
+  </si>
+  <si>
+    <t>test.java</t>
+  </si>
+  <si>
+    <t>Заполнение полей заполнения заявки для гостиниц и санаториев:</t>
+  </si>
+  <si>
+    <t>Поле "Ваше имя":</t>
+  </si>
+  <si>
+    <t>Только буквы</t>
+  </si>
+  <si>
+    <t>Буквы и символ "-" не на первой позиции</t>
+  </si>
+  <si>
+    <t>Допустимые данные:</t>
+  </si>
+  <si>
+    <t>Алексей Малов</t>
+  </si>
+  <si>
+    <t>Михаил Салтыков-Щедрин</t>
+  </si>
+  <si>
+    <t>Недопустимые символы:</t>
+  </si>
+  <si>
+    <t>Содержатся цифры</t>
+  </si>
+  <si>
+    <t>Петр1</t>
+  </si>
+  <si>
+    <t>Содержатся символы помимо "-"</t>
+  </si>
+  <si>
+    <t>*имя№№</t>
+  </si>
+  <si>
+    <t>Слово начинается с "-"</t>
+  </si>
+  <si>
+    <t>Поле "Контактный телефон":</t>
+  </si>
+  <si>
+    <t>Допустимые символы:</t>
+  </si>
+  <si>
+    <t>Только цифры</t>
+  </si>
+  <si>
+    <t>Символ + на первой позиции</t>
+  </si>
+  <si>
+    <t>+78005553535</t>
+  </si>
+  <si>
+    <t>Содержатся буквы</t>
+  </si>
+  <si>
+    <t>4фыв5452212ыв</t>
+  </si>
+  <si>
+    <t>Содержатся символы</t>
+  </si>
+  <si>
+    <t>*12445%%</t>
+  </si>
+  <si>
+    <t>Поле "E-mail":</t>
+  </si>
+  <si>
+    <t>Маска *@*.*</t>
+  </si>
+  <si>
+    <t>example@test.com</t>
+  </si>
+  <si>
+    <t>Недопустимые данные:</t>
+  </si>
+  <si>
+    <t>Данные не соответствуют маске *@*.*</t>
+  </si>
+  <si>
+    <t>seffsf.rc</t>
+  </si>
+  <si>
+    <t>Содержится кириллица</t>
+  </si>
+  <si>
+    <t>вася@майл.ру</t>
+  </si>
+  <si>
+    <t>-Анна</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>1 - crit , 3 : non crit</t>
+  </si>
+  <si>
+    <t>Сообщения об ошибке нет, файл загружен</t>
+  </si>
+  <si>
+    <t>Сообщения о некорректном формате нет, имя считается корректным</t>
+  </si>
+  <si>
+    <t>Сообщения о некорректном формате нет, телефон считается корректным</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -35,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -43,14 +398,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,16 +780,929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="75">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="74.25" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75">
+      <c r="A38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4">
+        <v>88005553535</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="90">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="90">
+      <c r="A46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B50" r:id="rId1"/>
+    <hyperlink ref="B53" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId3"/>
 </worksheet>
 </file>
 
